--- a/SpecFlow/Features/Calculator.feature.xlsx
+++ b/SpecFlow/Features/Calculator.feature.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Given</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Adding negative numbers</t>
+  </si>
+  <si>
+    <t>I have also entered</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
